--- a/mixs-templates/Mims_plus_combinations/MimsHostAssociated.xlsx
+++ b/mixs-templates/Mims_plus_combinations/MimsHostAssociated.xlsx
@@ -869,15 +869,21 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation sqref="P2:P1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"aerobe,anaerobe,facultative,microaerophilic,microanaerobe,obligate aerobe,obligate anaerobe"</formula1>
     </dataValidation>
     <dataValidation sqref="S2:S1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
+    <dataValidation sqref="T2:T1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
+    </dataValidation>
     <dataValidation sqref="Y2:Y1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
+    </dataValidation>
+    <dataValidation sqref="AV2:AV1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"breeder's line,clonal selection,hybrid,inbred line,mutant,natural,semi-natural,wild"</formula1>
     </dataValidation>
     <dataValidation sqref="AY2:AY1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"active surveillance in response to an outbreak,active surveillance not initiated by an outbreak,farm sample,market sample,other"</formula1>
